--- a/rapport-audit-SEO.xlsx
+++ b/rapport-audit-SEO.xlsx
@@ -244,7 +244,7 @@
     <t xml:space="preserve">accessibilité /perf SEO</t>
   </si>
   <si>
-    <t xml:space="preserve">Balises sémantiques insistantes.</t>
+    <t xml:space="preserve">Défaut de balises sémantiques.</t>
   </si>
   <si>
     <t xml:space="preserve">Les balises sémantiques donnent de la structure au code, elles sont essentielles pour seo et accessibilité.</t>
@@ -689,7 +689,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -736,10 +736,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -822,7 +818,7 @@
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B75" activeCellId="0" sqref="B75"/>
+      <selection pane="topLeft" activeCell="B66" activeCellId="0" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.2890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2251,7 +2247,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="60" s="12" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
         <v>86</v>
       </c>
@@ -2285,7 +2281,7 @@
       <c r="Y60" s="4"/>
       <c r="Z60" s="4"/>
     </row>
-    <row r="61" s="12" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="4"/>
       <c r="B61" s="11"/>
       <c r="C61" s="4"/>
@@ -2325,7 +2321,7 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="64" s="12" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
         <v>86</v>
       </c>
@@ -2359,7 +2355,7 @@
       <c r="Y64" s="4"/>
       <c r="Z64" s="4"/>
     </row>
-    <row r="65" s="12" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -2405,7 +2401,7 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="68" s="12" customFormat="true" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" s="6" customFormat="true" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
         <v>86</v>
       </c>
@@ -2443,7 +2439,7 @@
       <c r="Y68" s="4"/>
       <c r="Z68" s="4"/>
     </row>
-    <row r="69" s="12" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -2480,7 +2476,7 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="72" s="12" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="4" t="s">
         <v>8</v>
       </c>
@@ -2512,7 +2508,7 @@
       <c r="Y72" s="4"/>
       <c r="Z72" s="4"/>
     </row>
-    <row r="73" s="12" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>

--- a/rapport-audit-SEO.xlsx
+++ b/rapport-audit-SEO.xlsx
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="210">
   <si>
     <t xml:space="preserve">Catégorie</t>
   </si>
   <si>
-    <t xml:space="preserve">Problème identifié</t>
+    <t xml:space="preserve">11 Problèmes identifiés</t>
   </si>
   <si>
     <t xml:space="preserve">Explication du problème</t>
@@ -49,6 +49,9 @@
     <t xml:space="preserve">accessibilité </t>
   </si>
   <si>
+    <t xml:space="preserve">1 accessibilité </t>
+  </si>
+  <si>
     <t xml:space="preserve">Logo illisible</t>
   </si>
   <si>
@@ -67,6 +70,9 @@
     <t xml:space="preserve">Acces-1.png</t>
   </si>
   <si>
+    <t xml:space="preserve">2 accessibilité </t>
+  </si>
+  <si>
     <t xml:space="preserve">Pas de balise title</t>
   </si>
   <si>
@@ -85,6 +91,9 @@
     <t xml:space="preserve">On-page/audit onPage-1.png</t>
   </si>
   <si>
+    <t xml:space="preserve">3 accessibilité </t>
+  </si>
+  <si>
     <t xml:space="preserve">Un lien ‘page2’ à la place de  lien ‘page contact’.</t>
   </si>
   <si>
@@ -100,6 +109,9 @@
     <t xml:space="preserve">https://developers.google.com/search/docs/fundamentals/seo-starter-guide?hl=fr#getting-started </t>
   </si>
   <si>
+    <t xml:space="preserve">4 accessibilité </t>
+  </si>
+  <si>
     <t xml:space="preserve">Liens qui pointent vers la même URL.</t>
   </si>
   <si>
@@ -118,6 +130,9 @@
     <t xml:space="preserve">(WCAG) 2.4. 4</t>
   </si>
   <si>
+    <t xml:space="preserve">5 accessibilité </t>
+  </si>
+  <si>
     <t xml:space="preserve">Commentaires tailles</t>
   </si>
   <si>
@@ -133,6 +148,9 @@
     <t xml:space="preserve">Acces-2 / 3 / 4 / 5 / 6 / 7.png</t>
   </si>
   <si>
+    <t xml:space="preserve"> 6 accessibilité </t>
+  </si>
+  <si>
     <t xml:space="preserve">Utilisation d’images texte </t>
   </si>
   <si>
@@ -151,6 +169,9 @@
     <t xml:space="preserve">Acce -2 / 8 / 9.png</t>
   </si>
   <si>
+    <t xml:space="preserve">7 accessibilité </t>
+  </si>
+  <si>
     <t xml:space="preserve">Balises « alt » défaillantes, inexistantes, ou mal utilisées.</t>
   </si>
   <si>
@@ -169,6 +190,9 @@
     <t xml:space="preserve">On-page/audit onPage-7/8/9/10/16.png</t>
   </si>
   <si>
+    <t xml:space="preserve">8 accessibilité </t>
+  </si>
+  <si>
     <t xml:space="preserve">Des textes sur font peu perceptible, erreur de contraste.</t>
   </si>
   <si>
@@ -187,6 +211,9 @@
     <t xml:space="preserve">Acces-1/ 5 /7.png</t>
   </si>
   <si>
+    <t xml:space="preserve">9 accessibilité </t>
+  </si>
+  <si>
     <t xml:space="preserve">Le formulaire de contact présente des erreur de code et d ‘étiquetage.  </t>
   </si>
   <si>
@@ -205,6 +232,9 @@
     <t xml:space="preserve">(WCAG) 1.1.1  / 1.3.1  /  3.3.2</t>
   </si>
   <si>
+    <t xml:space="preserve">10 accessibilité </t>
+  </si>
+  <si>
     <t xml:space="preserve">Balise méta langage inactive</t>
   </si>
   <si>
@@ -220,6 +250,9 @@
     <t xml:space="preserve">https://www.w3.org/TR/WCAG21/#language-of-page </t>
   </si>
   <si>
+    <t xml:space="preserve">11 accessibilité </t>
+  </si>
+  <si>
     <t xml:space="preserve">Attribut aria inexistants </t>
   </si>
   <si>
@@ -238,10 +271,16 @@
     <t xml:space="preserve">(WCAG) 1.1.1  / 1.3.1  /  2.4.6  /  4.1.2  /  2.5.3</t>
   </si>
   <si>
+    <t xml:space="preserve">16 Problèmes identifiés</t>
+  </si>
+  <si>
     <t xml:space="preserve">Annexe</t>
   </si>
   <si>
-    <t xml:space="preserve">accessibilité /perf SEO</t>
+    <t xml:space="preserve">Performance SEO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 accessibilité /perf SEO</t>
   </si>
   <si>
     <t xml:space="preserve">Défaut de balises sémantiques.</t>
@@ -259,7 +298,7 @@
     <t xml:space="preserve">https://fiches-pratiques.chefdentreprise.com/Thematique/marketing-1052/FichePratique/Quel-est-l-interet-des-balises-semantiques--351215.htm</t>
   </si>
   <si>
-    <t xml:space="preserve">accessibilité  /perf SEO</t>
+    <t xml:space="preserve">2   accessibilité/perf SEO</t>
   </si>
   <si>
     <t xml:space="preserve">Icônes désuètes et non pertinentes.</t>
@@ -280,7 +319,7 @@
     <t xml:space="preserve">acces-2.png</t>
   </si>
   <si>
-    <t xml:space="preserve">performance</t>
+    <t xml:space="preserve"> 3 performance</t>
   </si>
   <si>
     <t xml:space="preserve">Le responsive mobile, dysfonctionne.</t>
@@ -301,6 +340,9 @@
     <t xml:space="preserve">Responsive-perf </t>
   </si>
   <si>
+    <t xml:space="preserve">4 performance</t>
+  </si>
+  <si>
     <t xml:space="preserve">L'encodage des images est inefficace.</t>
   </si>
   <si>
@@ -337,6 +379,9 @@
     <t xml:space="preserve">On-page/audit onPage-16.png</t>
   </si>
   <si>
+    <t xml:space="preserve">6 performance</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dimensionnent incorrect des images.</t>
   </si>
   <si>
@@ -373,6 +418,9 @@
     <t xml:space="preserve">Feuilles-perf-1 et 4.</t>
   </si>
   <si>
+    <t xml:space="preserve">8 performance</t>
+  </si>
+  <si>
     <t xml:space="preserve">Réduisez la taille des ressources JavaScript/css</t>
   </si>
   <si>
@@ -391,6 +439,9 @@
     <t xml:space="preserve">Feuilles-perf-2 et 3</t>
   </si>
   <si>
+    <t xml:space="preserve">9 performance</t>
+  </si>
+  <si>
     <t xml:space="preserve">Liens footer indésirables.</t>
   </si>
   <si>
@@ -409,6 +460,9 @@
     <t xml:space="preserve">Feuilles-perf-6.PNG</t>
   </si>
   <si>
+    <t xml:space="preserve">10 performance</t>
+  </si>
+  <si>
     <t xml:space="preserve">Paramètre cache navigateur</t>
   </si>
   <si>
@@ -427,6 +481,9 @@
     <t xml:space="preserve">Feuilles-perf-5</t>
   </si>
   <si>
+    <t xml:space="preserve">11 performance</t>
+  </si>
+  <si>
     <t xml:space="preserve">Liens qui porte nul part </t>
   </si>
   <si>
@@ -442,6 +499,9 @@
     <t xml:space="preserve">audit onPage-14.png</t>
   </si>
   <si>
+    <t xml:space="preserve">12 performance</t>
+  </si>
+  <si>
     <t xml:space="preserve">Balise script Google Analyque  (GA) inexistante</t>
   </si>
   <si>
@@ -457,6 +517,9 @@
     <t xml:space="preserve">https://developers.google.com/analytics/devguides/collection/ga4?hl=fr</t>
   </si>
   <si>
+    <t xml:space="preserve">13 performance</t>
+  </si>
+  <si>
     <t xml:space="preserve">ID search console inexistant</t>
   </si>
   <si>
@@ -472,6 +535,9 @@
     <t xml:space="preserve">https://support.google.com/webmasters/answer/9128668?hl=en</t>
   </si>
   <si>
+    <t xml:space="preserve">14 performance</t>
+  </si>
+  <si>
     <t xml:space="preserve">Balise canonial inexistante</t>
   </si>
   <si>
@@ -487,6 +553,9 @@
     <t xml:space="preserve">https://developers.google.com/search/docs/crawling-indexing/consolidate-duplicate-urls?hl=fr</t>
   </si>
   <si>
+    <t xml:space="preserve">15 performance</t>
+  </si>
+  <si>
     <t xml:space="preserve">Défaut de fichier robots.txt.</t>
   </si>
   <si>
@@ -499,6 +568,9 @@
     <t xml:space="preserve">https://developers.google.com/search/docs/crawling-indexing/robots/intro?hl=fr</t>
   </si>
   <si>
+    <t xml:space="preserve">16 performance</t>
+  </si>
+  <si>
     <t xml:space="preserve">Défaut de fichier sitmap.xml</t>
   </si>
   <si>
@@ -517,7 +589,10 @@
     <t xml:space="preserve">sitemapp.xml</t>
   </si>
   <si>
-    <t xml:space="preserve">Suggestion des améliorations à envisager</t>
+    <t xml:space="preserve">7 Suggestions d’ améliorations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 performance</t>
   </si>
   <si>
     <t xml:space="preserve">Une CSP (Content Security Policy)  risque d'attaques de script intersites (XSS)</t>
@@ -526,12 +601,18 @@
     <t xml:space="preserve">Problème de sécurité du site lien lié aux composent non mis-à-jour.</t>
   </si>
   <si>
+    <t xml:space="preserve">2 performance</t>
+  </si>
+  <si>
     <t xml:space="preserve">Remplacer Bootstrap et jquery  par sass (securité / durabilité ) .</t>
   </si>
   <si>
     <t xml:space="preserve">Principaux éléments à changer pour la sécurité.</t>
   </si>
   <si>
+    <t xml:space="preserve">3 performance</t>
+  </si>
+  <si>
     <t xml:space="preserve">Envisager un loader.</t>
   </si>
   <si>
@@ -548,6 +629,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://developer.mozilla.org/en-US/docs/Learn/Server-side/Apache_Configuration_htaccess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 performance</t>
   </si>
   <si>
     <t xml:space="preserve">Extensible markup langage (xml).</t>
@@ -575,7 +659,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -620,6 +704,12 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -689,7 +779,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -726,11 +816,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -815,10 +909,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z1048576"/>
+  <dimension ref="A1:Z1032"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B66" activeCellId="0" sqref="B66"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B59" activeCellId="0" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.2890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -879,7 +973,9 @@
       <c r="Z1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -908,25 +1004,25 @@
     </row>
     <row r="3" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -978,49 +1074,49 @@
     </row>
     <row r="5" s="7" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="7" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -1072,49 +1168,49 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="11" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -1166,49 +1262,49 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="15" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -1260,49 +1356,49 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="19" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
@@ -1353,50 +1449,50 @@
       <c r="Z20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>8</v>
+      <c r="A21" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="23" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
@@ -1451,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>2</v>
@@ -1466,14 +1562,16 @@
         <v>5</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2"/>
+      <c r="A26" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1484,22 +1582,22 @@
     </row>
     <row r="27" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -1552,49 +1650,49 @@
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="31" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
@@ -1646,49 +1744,49 @@
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="35" s="6" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
@@ -1740,25 +1838,25 @@
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1766,25 +1864,25 @@
     </row>
     <row r="39" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
@@ -1836,25 +1934,25 @@
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1863,25 +1961,25 @@
     </row>
     <row r="43" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>86</v>
+        <v>139</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
@@ -1933,25 +2031,25 @@
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>86</v>
+        <v>146</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1960,25 +2058,25 @@
     </row>
     <row r="47" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>86</v>
+        <v>153</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
@@ -2030,49 +2128,49 @@
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>86</v>
+        <v>159</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="51" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
@@ -2124,25 +2222,25 @@
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>86</v>
+        <v>171</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2150,25 +2248,25 @@
     </row>
     <row r="55" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>86</v>
+        <v>177</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
@@ -2220,71 +2318,46 @@
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>86</v>
+        <v>182</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="59" s="9" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B59" s="10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="60" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="4"/>
-      <c r="O60" s="4"/>
-      <c r="P60" s="4"/>
-      <c r="Q60" s="4"/>
-      <c r="R60" s="4"/>
-      <c r="S60" s="4"/>
-      <c r="T60" s="4"/>
-      <c r="U60" s="4"/>
-      <c r="V60" s="4"/>
-      <c r="W60" s="4"/>
-      <c r="X60" s="4"/>
-      <c r="Y60" s="4"/>
-      <c r="Z60" s="4"/>
+    <row r="59" s="10" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B59" s="11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="60" s="10" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B60" s="11"/>
     </row>
     <row r="61" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="4"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="4"/>
+      <c r="A61" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>192</v>
+      </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
@@ -2309,56 +2382,56 @@
       <c r="Y61" s="4"/>
       <c r="Z61" s="4"/>
     </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="64" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
-      <c r="M64" s="4"/>
-      <c r="N64" s="4"/>
-      <c r="O64" s="4"/>
-      <c r="P64" s="4"/>
-      <c r="Q64" s="4"/>
-      <c r="R64" s="4"/>
-      <c r="S64" s="4"/>
-      <c r="T64" s="4"/>
-      <c r="U64" s="4"/>
-      <c r="V64" s="4"/>
-      <c r="W64" s="4"/>
-      <c r="X64" s="4"/>
-      <c r="Y64" s="4"/>
-      <c r="Z64" s="4"/>
-    </row>
+    <row r="62" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="4"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
+      <c r="O62" s="4"/>
+      <c r="P62" s="4"/>
+      <c r="Q62" s="4"/>
+      <c r="R62" s="4"/>
+      <c r="S62" s="4"/>
+      <c r="T62" s="4"/>
+      <c r="U62" s="4"/>
+      <c r="V62" s="4"/>
+      <c r="W62" s="4"/>
+      <c r="X62" s="4"/>
+      <c r="Y62" s="4"/>
+      <c r="Z62" s="4"/>
+    </row>
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="65" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
+      <c r="A65" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>198</v>
+      </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
@@ -2383,69 +2456,69 @@
       <c r="Y65" s="4"/>
       <c r="Z65" s="4"/>
     </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="68" s="6" customFormat="true" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
-      <c r="K68" s="4"/>
-      <c r="L68" s="4"/>
-      <c r="M68" s="4"/>
-      <c r="N68" s="4"/>
-      <c r="O68" s="4"/>
-      <c r="P68" s="4"/>
-      <c r="Q68" s="4"/>
-      <c r="R68" s="4"/>
-      <c r="S68" s="4"/>
-      <c r="T68" s="4"/>
-      <c r="U68" s="4"/>
-      <c r="V68" s="4"/>
-      <c r="W68" s="4"/>
-      <c r="X68" s="4"/>
-      <c r="Y68" s="4"/>
-      <c r="Z68" s="4"/>
-    </row>
-    <row r="69" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
+    <row r="66" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4"/>
+      <c r="O66" s="4"/>
+      <c r="P66" s="4"/>
+      <c r="Q66" s="4"/>
+      <c r="R66" s="4"/>
+      <c r="S66" s="4"/>
+      <c r="T66" s="4"/>
+      <c r="U66" s="4"/>
+      <c r="V66" s="4"/>
+      <c r="W66" s="4"/>
+      <c r="X66" s="4"/>
+      <c r="Y66" s="4"/>
+      <c r="Z66" s="4"/>
+    </row>
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="69" s="6" customFormat="true" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>206</v>
+      </c>
       <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
+      <c r="F69" s="4" t="s">
+        <v>207</v>
+      </c>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
@@ -2467,50 +2540,50 @@
       <c r="Y69" s="4"/>
       <c r="Z69" s="4"/>
     </row>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="72" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
-      <c r="K72" s="4"/>
-      <c r="L72" s="4"/>
-      <c r="M72" s="4"/>
-      <c r="N72" s="4"/>
-      <c r="O72" s="4"/>
-      <c r="P72" s="4"/>
-      <c r="Q72" s="4"/>
-      <c r="R72" s="4"/>
-      <c r="S72" s="4"/>
-      <c r="T72" s="4"/>
-      <c r="U72" s="4"/>
-      <c r="V72" s="4"/>
-      <c r="W72" s="4"/>
-      <c r="X72" s="4"/>
-      <c r="Y72" s="4"/>
-      <c r="Z72" s="4"/>
-    </row>
+    <row r="70" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4"/>
+      <c r="O70" s="4"/>
+      <c r="P70" s="4"/>
+      <c r="Q70" s="4"/>
+      <c r="R70" s="4"/>
+      <c r="S70" s="4"/>
+      <c r="T70" s="4"/>
+      <c r="U70" s="4"/>
+      <c r="V70" s="4"/>
+      <c r="W70" s="4"/>
+      <c r="X70" s="4"/>
+      <c r="Y70" s="4"/>
+      <c r="Z70" s="4"/>
+    </row>
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="73" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="4"/>
-      <c r="B73" s="4"/>
+      <c r="A73" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>209</v>
+      </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
@@ -2536,7 +2609,34 @@
       <c r="Y73" s="4"/>
       <c r="Z73" s="4"/>
     </row>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="74" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="4"/>
+      <c r="O74" s="4"/>
+      <c r="P74" s="4"/>
+      <c r="Q74" s="4"/>
+      <c r="R74" s="4"/>
+      <c r="S74" s="4"/>
+      <c r="T74" s="4"/>
+      <c r="U74" s="4"/>
+      <c r="V74" s="4"/>
+      <c r="W74" s="4"/>
+      <c r="X74" s="4"/>
+      <c r="Y74" s="4"/>
+      <c r="Z74" s="4"/>
+    </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3494,7 +3594,7 @@
     <row r="1029" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1030" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1031" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1032" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1" location="readable" display="https://www.w3.org/WAI/WCAG21/quickref/#readable"/>
@@ -3524,8 +3624,8 @@
     <hyperlink ref="F53" r:id="rId25" display="https://developers.google.com/search/docs/crawling-indexing/consolidate-duplicate-urls?hl=fr"/>
     <hyperlink ref="F55" r:id="rId26" display="https://developers.google.com/search/docs/crawling-indexing/robots/intro?hl=fr"/>
     <hyperlink ref="F57" r:id="rId27" display="https://developers.google.com/search/docs/crawling-indexing/sitemaps/overview?hl=fr"/>
-    <hyperlink ref="F66" r:id="rId28" display="https://developer.mozilla.org/en-US/docs/Learn/Server-side/Apache_Configuration_htaccess"/>
-    <hyperlink ref="F68" r:id="rId29" display="https://developer.mozilla.org/fr/docs/Web/XML/XML_introduction"/>
+    <hyperlink ref="F67" r:id="rId28" display="https://developer.mozilla.org/en-US/docs/Learn/Server-side/Apache_Configuration_htaccess"/>
+    <hyperlink ref="F69" r:id="rId29" display="https://developer.mozilla.org/fr/docs/Web/XML/XML_introduction"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/rapport-audit-SEO.xlsx
+++ b/rapport-audit-SEO.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="214">
   <si>
     <t xml:space="preserve">Catégorie</t>
   </si>
@@ -37,7 +37,7 @@
     <t xml:space="preserve">Action recommandée</t>
   </si>
   <si>
-    <t xml:space="preserve">Référence</t>
+    <t xml:space="preserve">Références Google et</t>
   </si>
   <si>
     <t xml:space="preserve">Annexe 1</t>
@@ -49,6 +49,9 @@
     <t xml:space="preserve">accessibilité </t>
   </si>
   <si>
+    <t xml:space="preserve">Web Content Accessibility Guidelines (WCAG)</t>
+  </si>
+  <si>
     <t xml:space="preserve">1 accessibilité </t>
   </si>
   <si>
@@ -73,10 +76,10 @@
     <t xml:space="preserve">2 accessibilité </t>
   </si>
   <si>
-    <t xml:space="preserve">Pas de balise title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Il faut mettre une balise title de le head html qui s’affichera sur l’onglet de page web. </t>
+    <t xml:space="preserve">Pas de balise « title »</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il faut mettre une balise « title » dans le head html qui s’affichera sur l’onglet de page web. </t>
   </si>
   <si>
     <t xml:space="preserve">mettre une balise ‘title’ pertinente</t>
@@ -85,7 +88,7 @@
     <t xml:space="preserve">mettre une balise « title » .</t>
   </si>
   <si>
-    <t xml:space="preserve">https://developers.google.com/search/docs/fundamentals/seo-starter-guide?hl=fr </t>
+    <t xml:space="preserve">https://developers.google.com/search/docs/fundamentals/seo-starter-guide?hl=fr#uniquepagetitles </t>
   </si>
   <si>
     <t xml:space="preserve">On-page/audit onPage-1.png</t>
@@ -106,7 +109,7 @@
     <t xml:space="preserve">remplacer le lien « page2 » par « Contact », plus significatif.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://developers.google.com/search/docs/fundamentals/seo-starter-guide?hl=fr#getting-started </t>
+    <t xml:space="preserve">https://developers.google.com/search/docs/fundamentals/seo-starter-guide?hl=fr#navisimportant </t>
   </si>
   <si>
     <t xml:space="preserve">4 accessibilité </t>
@@ -280,6 +283,9 @@
     <t xml:space="preserve">Performance SEO</t>
   </si>
   <si>
+    <t xml:space="preserve">World Wide Web Consortium (W3C)</t>
+  </si>
+  <si>
     <t xml:space="preserve">1 accessibilité /perf SEO</t>
   </si>
   <si>
@@ -298,6 +304,9 @@
     <t xml:space="preserve">https://fiches-pratiques.chefdentreprise.com/Thematique/marketing-1052/FichePratique/Quel-est-l-interet-des-balises-semantiques--351215.htm</t>
   </si>
   <si>
+    <t xml:space="preserve">https://support.google.com/webmasters/answer/3069489?hl=fr </t>
+  </si>
+  <si>
     <t xml:space="preserve">2   accessibilité/perf SEO</t>
   </si>
   <si>
@@ -338,6 +347,9 @@
   </si>
   <si>
     <t xml:space="preserve">Responsive-perf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://developers.google.com/search/docs/crawling-indexing/googlebot?hl=fr </t>
   </si>
   <si>
     <t xml:space="preserve">4 performance</t>
@@ -659,7 +671,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -704,12 +716,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -779,7 +785,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -816,15 +822,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -911,8 +913,8 @@
   </sheetPr>
   <dimension ref="A1:Z1032"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B59" activeCellId="0" sqref="B59"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F29" activeCellId="0" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.2890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -980,7 +982,9 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="3"/>
@@ -1004,25 +1008,25 @@
     </row>
     <row r="3" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -1074,49 +1078,49 @@
     </row>
     <row r="5" s="7" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="7" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -1168,49 +1172,49 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="11" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -1262,49 +1266,49 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="15" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -1356,49 +1360,49 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="19" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
@@ -1449,50 +1453,50 @@
       <c r="Z20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="s">
-        <v>70</v>
+      <c r="A21" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="23" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
@@ -1547,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>2</v>
@@ -1562,42 +1566,44 @@
         <v>5</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -1626,7 +1632,9 @@
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+      <c r="F28" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
@@ -1650,49 +1658,49 @@
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="31" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
@@ -1720,7 +1728,9 @@
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
+      <c r="F32" s="5" t="s">
+        <v>109</v>
+      </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
@@ -1744,49 +1754,49 @@
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="35" s="6" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
@@ -1838,25 +1848,25 @@
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1864,25 +1874,25 @@
     </row>
     <row r="39" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
@@ -1934,25 +1944,25 @@
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1961,25 +1971,25 @@
     </row>
     <row r="43" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
@@ -2031,25 +2041,25 @@
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2058,25 +2068,25 @@
     </row>
     <row r="47" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
@@ -2128,49 +2138,49 @@
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="51" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
@@ -2222,25 +2232,25 @@
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2248,25 +2258,25 @@
     </row>
     <row r="55" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
@@ -2318,45 +2328,45 @@
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="59" s="10" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B59" s="11" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="60" s="10" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B60" s="11"/>
+    <row r="59" s="9" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B59" s="10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="60" s="9" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B60" s="10"/>
     </row>
     <row r="61" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>191</v>
+        <v>194</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>195</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
@@ -2384,7 +2394,7 @@
     </row>
     <row r="62" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="4"/>
-      <c r="B62" s="12"/>
+      <c r="B62" s="11"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
@@ -2412,25 +2422,25 @@
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="65" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
@@ -2486,38 +2496,38 @@
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="69" s="6" customFormat="true" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" s="4" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
@@ -2570,19 +2580,19 @@
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="73" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -3598,8 +3608,8 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1" location="readable" display="https://www.w3.org/WAI/WCAG21/quickref/#readable"/>
-    <hyperlink ref="F5" r:id="rId2" display="https://developers.google.com/search/docs/fundamentals/seo-starter-guide?hl=fr "/>
-    <hyperlink ref="F7" r:id="rId3" location="getting-started" display="https://developers.google.com/search/docs/fundamentals/seo-starter-guide?hl=fr#getting-started "/>
+    <hyperlink ref="F5" r:id="rId2" location="uniquepagetitles" display="https://developers.google.com/search/docs/fundamentals/seo-starter-guide?hl=fr#uniquepagetitles"/>
+    <hyperlink ref="F7" r:id="rId3" location="navisimportant" display="https://developers.google.com/search/docs/fundamentals/seo-starter-guide?hl=fr#navisimportant"/>
     <hyperlink ref="F9" r:id="rId4" location="link-purpose-in-context" display="https://www.w3.org/TR/WCAG21/#link-purpose-in-context"/>
     <hyperlink ref="F11" r:id="rId5" location="readable" display="https://www.w3.org/WAI/WCAG21/quickref/#readable"/>
     <hyperlink ref="F13" r:id="rId6" location="non-text-content" display="https://www.w3.org/TR/WCAG21/#non-text-content "/>
@@ -3609,23 +3619,25 @@
     <hyperlink ref="F21" r:id="rId10" location="language-of-page" display="https://www.w3.org/TR/WCAG21/#language-of-page "/>
     <hyperlink ref="F23" r:id="rId11" display="https://developer.mozilla.org/en-US/docs/Web/Accessibility/ARIA/Attributes/aria-label"/>
     <hyperlink ref="F27" r:id="rId12" display="https://fiches-pratiques.chefdentreprise.com/Thematique/marketing-1052/FichePratique/Quel-est-l-interet-des-balises-semantiques--351215.htm"/>
-    <hyperlink ref="F29" r:id="rId13" display="https://developers.google.com/search/docs/fundamentals/creating-helpful-content?hl=fr"/>
-    <hyperlink ref="F31" r:id="rId14" display="https://en.wikipedia.org/wiki/Responsive_web_design "/>
-    <hyperlink ref="F33" r:id="rId15" display="https://developer.chrome.com/docs/lighthouse/performance/uses-webp-images/?utm_source=lighthouse&amp;utm_medium=lr"/>
-    <hyperlink ref="F35" r:id="rId16" display="https://validator.w3.org/"/>
-    <hyperlink ref="F37" r:id="rId17" display="https://developer.chrome.com/docs/lighthouse/performance/uses-responsive-images/?utm_source=lighthouse&amp;utm_medium=lr"/>
-    <hyperlink ref="F39" r:id="rId18" display="https://developer.chrome.com/docs/lighthouse/performance/render-blocking-resources/?utm_source=lighthouse&amp;utm_medium=lr"/>
-    <hyperlink ref="F41" r:id="rId19" display="https://developer.chrome.com/docs/lighthouse/performance/unminified-javascript/?utm_source=lighthouse&amp;utm_medium=lr"/>
-    <hyperlink ref="F43" r:id="rId20" display="https://developers.google.com/search/docs/crawling-indexing/googlebot?hl=fr"/>
-    <hyperlink ref="F45" r:id="rId21" display="https://developer.chrome.com/docs/lighthouse/performance/uses-long-cache-ttl/?utm_source=lighthouse&amp;utm_medium=lr "/>
-    <hyperlink ref="F47" r:id="rId22" display="https://developers.google.com/search/docs/fundamentals/creating-helpful-content?hl=fr"/>
-    <hyperlink ref="F49" r:id="rId23" display="https://developers.google.com/analytics/devguides/collection/ga4?hl=fr"/>
-    <hyperlink ref="F51" r:id="rId24" display="https://support.google.com/webmasters/answer/9128668?hl=en"/>
-    <hyperlink ref="F53" r:id="rId25" display="https://developers.google.com/search/docs/crawling-indexing/consolidate-duplicate-urls?hl=fr"/>
-    <hyperlink ref="F55" r:id="rId26" display="https://developers.google.com/search/docs/crawling-indexing/robots/intro?hl=fr"/>
-    <hyperlink ref="F57" r:id="rId27" display="https://developers.google.com/search/docs/crawling-indexing/sitemaps/overview?hl=fr"/>
-    <hyperlink ref="F67" r:id="rId28" display="https://developer.mozilla.org/en-US/docs/Learn/Server-side/Apache_Configuration_htaccess"/>
-    <hyperlink ref="F69" r:id="rId29" display="https://developer.mozilla.org/fr/docs/Web/XML/XML_introduction"/>
+    <hyperlink ref="F28" r:id="rId13" display="https://support.google.com/webmasters/answer/3069489?hl=fr"/>
+    <hyperlink ref="F29" r:id="rId14" display="https://developers.google.com/search/docs/fundamentals/creating-helpful-content?hl=fr"/>
+    <hyperlink ref="F31" r:id="rId15" display="https://en.wikipedia.org/wiki/Responsive_web_design "/>
+    <hyperlink ref="F32" r:id="rId16" display="https://developers.google.com/search/docs/crawling-indexing/googlebot?hl=fr"/>
+    <hyperlink ref="F33" r:id="rId17" display="https://developer.chrome.com/docs/lighthouse/performance/uses-webp-images/?utm_source=lighthouse&amp;utm_medium=lr"/>
+    <hyperlink ref="F35" r:id="rId18" display="https://validator.w3.org/"/>
+    <hyperlink ref="F37" r:id="rId19" display="https://developer.chrome.com/docs/lighthouse/performance/uses-responsive-images/?utm_source=lighthouse&amp;utm_medium=lr"/>
+    <hyperlink ref="F39" r:id="rId20" display="https://developer.chrome.com/docs/lighthouse/performance/render-blocking-resources/?utm_source=lighthouse&amp;utm_medium=lr"/>
+    <hyperlink ref="F41" r:id="rId21" display="https://developer.chrome.com/docs/lighthouse/performance/unminified-javascript/?utm_source=lighthouse&amp;utm_medium=lr"/>
+    <hyperlink ref="F43" r:id="rId22" display="https://developers.google.com/search/docs/crawling-indexing/googlebot?hl=fr"/>
+    <hyperlink ref="F45" r:id="rId23" display="https://developer.chrome.com/docs/lighthouse/performance/uses-long-cache-ttl/?utm_source=lighthouse&amp;utm_medium=lr "/>
+    <hyperlink ref="F47" r:id="rId24" display="https://developers.google.com/search/docs/fundamentals/creating-helpful-content?hl=fr"/>
+    <hyperlink ref="F49" r:id="rId25" display="https://developers.google.com/analytics/devguides/collection/ga4?hl=fr"/>
+    <hyperlink ref="F51" r:id="rId26" display="https://support.google.com/webmasters/answer/9128668?hl=en"/>
+    <hyperlink ref="F53" r:id="rId27" display="https://developers.google.com/search/docs/crawling-indexing/consolidate-duplicate-urls?hl=fr"/>
+    <hyperlink ref="F55" r:id="rId28" display="https://developers.google.com/search/docs/crawling-indexing/robots/intro?hl=fr"/>
+    <hyperlink ref="F57" r:id="rId29" display="https://developers.google.com/search/docs/crawling-indexing/sitemaps/overview?hl=fr"/>
+    <hyperlink ref="F67" r:id="rId30" display="https://developer.mozilla.org/en-US/docs/Learn/Server-side/Apache_Configuration_htaccess"/>
+    <hyperlink ref="F69" r:id="rId31" display="https://developer.mozilla.org/fr/docs/Web/XML/XML_introduction"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
